--- a/src/main/resources/template-segur-requirement-export-modifie.xlsx
+++ b/src/main/resources/template-segur-requirement-export-modifie.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrenier\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\squash-plugin\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCB40F-D801-4A53-9F3C-E42C743A15D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF3E20-FB6B-42C6-8780-EF70BDB296C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Exigences!$A$1:$AE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Exigences!$A$1:$AD$1</definedName>
     <definedName name="appDefaut">#REF!</definedName>
     <definedName name="Applicable">#REF!</definedName>
     <definedName name="appNonApp">#REF!</definedName>
@@ -56,54 +56,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Exigence conditionnelle </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OUI/NON</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Profil</t>
   </si>
   <si>
-    <t>ID Section</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Bloc</t>
-  </si>
-  <si>
     <t>Fonction</t>
   </si>
   <si>
     <t>Nature de l'exigence</t>
   </si>
   <si>
-    <t>N° exigence</t>
-  </si>
-  <si>
-    <t>Énoncé de l'exigence (DOIT) ou de la préconisation (PEUT)</t>
-  </si>
-  <si>
     <t>N° scénario</t>
   </si>
   <si>
@@ -185,29 +148,41 @@
     <t>Intégration d'un document CDA reçu</t>
   </si>
   <si>
-    <t>EXIGENCE</t>
-  </si>
-  <si>
-    <t>MSS/CDA.01</t>
-  </si>
-  <si>
     <t>Le système vérifie au moment de la récupération du document que le numéro de document unique ne figure pas déjà dans le système. S'il existe déjà dans la même version, le système ne DOIT pas intégrer</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>MSS/CDA.01.01</t>
-  </si>
-  <si>
-    <t>MSS/CDA.01.01.01</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Chapitre</t>
+  </si>
+  <si>
+    <t>Exigence</t>
+  </si>
+  <si>
+    <t>Statut publication</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>MSS/CDA.00</t>
+  </si>
+  <si>
+    <t>MSS/CDA.01.00</t>
+  </si>
+  <si>
+    <t>MSS/CDA.01.01.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -261,13 +236,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -285,6 +253,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -337,7 +324,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -387,29 +374,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -692,240 +687,231 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.296875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.8984375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="35.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.3984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="66.3984375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.59765625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="18.59765625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="30.59765625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="30.59765625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.59765625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="30.59765625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="30.59765625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="18.59765625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="30.59765625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.59765625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="30.59765625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="18.59765625" style="7" customWidth="1"/>
-    <col min="27" max="27" width="30.59765625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="18.59765625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="30.59765625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="18.59765625" style="7" customWidth="1"/>
-    <col min="31" max="31" width="30.59765625" style="6" customWidth="1"/>
-    <col min="32" max="16384" width="9.296875" style="8"/>
+    <col min="1" max="1" width="11.92578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.2109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.92578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="35.2109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.0703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.2109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="66.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="30.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="30.5703125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="30.5703125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="18.5703125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="30.5703125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" style="7" customWidth="1"/>
+    <col min="31" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="19" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="19" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="F2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>38</v>
+      <c r="N2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AD2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
